--- a/files/Timdeplatvis111/converted/Bestand2.xlsx
+++ b/files/Timdeplatvis111/converted/Bestand2.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Bestand2Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -322,10 +322,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -363,11 +363,6 @@
           <t>Bestand 2 column 2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 7 - Test2</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -382,7 +377,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bestand 1 column 4 - Test7</t>
+          <t>Bestand 1 column 5</t>
         </is>
       </c>
     </row>
@@ -399,7 +394,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bestand 1 column 2 -  Test4</t>
+          <t>Bestand 1 column 4</t>
         </is>
       </c>
     </row>
@@ -416,7 +411,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bestand 1 column 5 - Test3</t>
+          <t>Bestand 1 column 7</t>
         </is>
       </c>
     </row>
@@ -433,7 +428,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bestand 1 column 6 - Test9</t>
+          <t>Bestand 1 column 6</t>
         </is>
       </c>
     </row>
@@ -450,7 +445,87 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bestand 1 column 3 -  Test5</t>
+          <t>Bestand 1 column 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test12344</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test12345</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test4444</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test1237777</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Test1234479</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 9</t>
         </is>
       </c>
     </row>
